--- a/data/GroupSpec_tetragonal.xlsx
+++ b/data/GroupSpec_tetragonal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2F7D5-E43F-A643-8E51-CF2E6E98A030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8CE298-1D73-A645-831B-F797F82C8089}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{4239A55F-B6A0-B74B-A834-7472AF0EB929}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
-    <sheet name="Groups V0" sheetId="2" r:id="rId2"/>
-    <sheet name="Groups V1" sheetId="3" r:id="rId3"/>
-    <sheet name="Groups V2" sheetId="4" r:id="rId4"/>
+    <sheet name="groups_v0" sheetId="2" r:id="rId2"/>
+    <sheet name="groups_v1" sheetId="3" r:id="rId3"/>
+    <sheet name="groups_v2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6611,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EADCD24-C178-9746-BFE1-6D6029F63069}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/GroupSpec_tetragonal.xlsx
+++ b/data/GroupSpec_tetragonal.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8CE298-1D73-A645-831B-F797F82C8089}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0AF06-038A-2540-95DE-65E60BF32584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{4239A55F-B6A0-B74B-A834-7472AF0EB929}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{4239A55F-B6A0-B74B-A834-7472AF0EB929}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
-    <sheet name="groups_v0" sheetId="2" r:id="rId2"/>
-    <sheet name="groups_v1" sheetId="3" r:id="rId3"/>
-    <sheet name="groups_v2" sheetId="4" r:id="rId4"/>
+    <sheet name="groups_v2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="101">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -312,27 +310,6 @@
     <t>P 42 n m</t>
   </si>
   <si>
-    <t>tetragonal_00</t>
-  </si>
-  <si>
-    <t>tetragonal_01</t>
-  </si>
-  <si>
-    <t>tetragonal_02</t>
-  </si>
-  <si>
-    <t>tetragonal_03</t>
-  </si>
-  <si>
-    <t>tetragonal_04</t>
-  </si>
-  <si>
-    <t>tetragonal_06</t>
-  </si>
-  <si>
-    <t>tetragonal_05</t>
-  </si>
-  <si>
     <t>counts (a &lt; c)</t>
   </si>
   <si>
@@ -340,6 +317,18 @@
   </si>
   <si>
     <t>fo</t>
+  </si>
+  <si>
+    <t>tP_00</t>
+  </si>
+  <si>
+    <t>tP_01</t>
+  </si>
+  <si>
+    <t>tI_00</t>
+  </si>
+  <si>
+    <t>tI_01</t>
   </si>
 </sst>
 </file>
@@ -724,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1897,7 +1886,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>41</v>
@@ -2816,3803 +2805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB65C18D-8285-8346-AA77-A83046AB3741}">
-  <dimension ref="A1:M72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3">
-        <v>873</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5">
-        <v>812</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>881</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10">
-        <v>1314</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14">
-        <v>1849</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16">
-        <v>205</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18">
-        <v>1741</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23">
-        <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28">
-        <v>35</v>
-      </c>
-      <c r="K28" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29">
-        <v>231</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30">
-        <v>1187</v>
-      </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>115</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34">
-        <v>176</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>123</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>124</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36">
-        <v>85</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38">
-        <v>239</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>127</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40">
-        <v>170</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>129</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41">
-        <v>228</v>
-      </c>
-      <c r="H41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>130</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42">
-        <v>485</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42" t="s">
-        <v>78</v>
-      </c>
-      <c r="L42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>131</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43">
-        <v>143</v>
-      </c>
-      <c r="K43" t="s">
-        <v>78</v>
-      </c>
-      <c r="L43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45">
-        <v>48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45" t="s">
-        <v>78</v>
-      </c>
-      <c r="L45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46">
-        <v>58</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>135</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47">
-        <v>111</v>
-      </c>
-      <c r="F47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" t="s">
-        <v>78</v>
-      </c>
-      <c r="L47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48">
-        <v>223</v>
-      </c>
-      <c r="F48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>137</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49">
-        <v>138</v>
-      </c>
-      <c r="H49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <f>SUM(D2:D50)</f>
-        <v>13054</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>139</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53">
-        <v>459</v>
-      </c>
-      <c r="E53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" t="s">
-        <v>78</v>
-      </c>
-      <c r="L53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>140</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54">
-        <v>186</v>
-      </c>
-      <c r="E54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>141</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55">
-        <v>240</v>
-      </c>
-      <c r="E55" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s">
-        <v>79</v>
-      </c>
-      <c r="L55" t="s">
-        <v>89</v>
-      </c>
-      <c r="M55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>142</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56">
-        <v>377</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57">
-        <v>281</v>
-      </c>
-      <c r="E57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58">
-        <v>225</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59">
-        <v>37</v>
-      </c>
-      <c r="E59" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60">
-        <v>95</v>
-      </c>
-      <c r="E60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61">
-        <v>197</v>
-      </c>
-      <c r="E61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" t="s">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s">
-        <v>81</v>
-      </c>
-      <c r="K61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62">
-        <v>631</v>
-      </c>
-      <c r="E62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
-      <c r="J62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>107</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" t="s">
-        <v>78</v>
-      </c>
-      <c r="L63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>108</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64">
-        <v>44</v>
-      </c>
-      <c r="E64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>109</v>
-      </c>
-      <c r="B65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65">
-        <v>45</v>
-      </c>
-      <c r="E65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s">
-        <v>79</v>
-      </c>
-      <c r="L65" t="s">
-        <v>89</v>
-      </c>
-      <c r="M65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>110</v>
-      </c>
-      <c r="B66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66">
-        <v>327</v>
-      </c>
-      <c r="E66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" t="s">
-        <v>79</v>
-      </c>
-      <c r="L66" t="s">
-        <v>89</v>
-      </c>
-      <c r="M66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>97</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>98</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68">
-        <v>192</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>87</v>
-      </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69">
-        <v>737</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s">
-        <v>81</v>
-      </c>
-      <c r="K69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>88</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70">
-        <v>3287</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71">
-        <v>1317</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s">
-        <v>81</v>
-      </c>
-      <c r="K71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D72">
-        <f>SUM(D53:D71)</f>
-        <v>8812</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF73E47C-01A4-BD47-BF60-2F38E579C828}">
-  <dimension ref="A1:M83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f>SUM(D2:D9)</f>
-        <v>618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18">
-        <v>873</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19">
-        <v>115</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20">
-        <v>106</v>
-      </c>
-      <c r="K20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>131</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23">
-        <v>143</v>
-      </c>
-      <c r="K23" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f>SUM(D12:D23)</f>
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26">
-        <v>812</v>
-      </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27">
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28">
-        <v>90</v>
-      </c>
-      <c r="K28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29">
-        <v>1741</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30">
-        <v>1849</v>
-      </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <f>SUM(D29:D30)</f>
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33">
-        <v>105</v>
-      </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34">
-        <v>231</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35">
-        <v>881</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36">
-        <v>228</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>117</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <f>SUM(D33:D40)</f>
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43">
-        <v>27</v>
-      </c>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44">
-        <v>122</v>
-      </c>
-      <c r="I44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" t="s">
-        <v>78</v>
-      </c>
-      <c r="L44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45">
-        <v>107</v>
-      </c>
-      <c r="F45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45" t="s">
-        <v>78</v>
-      </c>
-      <c r="L45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46">
-        <v>176</v>
-      </c>
-      <c r="I46" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47">
-        <v>239</v>
-      </c>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" t="s">
-        <v>78</v>
-      </c>
-      <c r="L47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48">
-        <v>170</v>
-      </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>130</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49">
-        <v>485</v>
-      </c>
-      <c r="F49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>133</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" t="s">
-        <v>78</v>
-      </c>
-      <c r="L50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>134</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51">
-        <v>58</v>
-      </c>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52">
-        <v>111</v>
-      </c>
-      <c r="F52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" t="s">
-        <v>81</v>
-      </c>
-      <c r="K52" t="s">
-        <v>78</v>
-      </c>
-      <c r="L52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53">
-        <v>223</v>
-      </c>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>137</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54">
-        <v>138</v>
-      </c>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56">
-        <v>1314</v>
-      </c>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57">
-        <v>205</v>
-      </c>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58">
-        <v>1187</v>
-      </c>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" t="s">
-        <v>78</v>
-      </c>
-      <c r="L58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D59">
-        <f>SUM(D43:D58)</f>
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>139</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62">
-        <v>459</v>
-      </c>
-      <c r="E62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
-      <c r="J62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>140</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63">
-        <v>186</v>
-      </c>
-      <c r="E63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" t="s">
-        <v>78</v>
-      </c>
-      <c r="L63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64">
-        <v>281</v>
-      </c>
-      <c r="E64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>119</v>
-      </c>
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <v>37</v>
-      </c>
-      <c r="E65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <v>95</v>
-      </c>
-      <c r="E66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>121</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67">
-        <v>197</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67" t="s">
-        <v>78</v>
-      </c>
-      <c r="L67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>107</v>
-      </c>
-      <c r="B68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" t="s">
-        <v>78</v>
-      </c>
-      <c r="L68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>108</v>
-      </c>
-      <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69">
-        <v>44</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s">
-        <v>81</v>
-      </c>
-      <c r="K69" t="s">
-        <v>78</v>
-      </c>
-      <c r="L69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>97</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <v>103</v>
-      </c>
-      <c r="E70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71">
-        <v>737</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s">
-        <v>81</v>
-      </c>
-      <c r="K71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>82</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72">
-        <v>1317</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s">
-        <v>81</v>
-      </c>
-      <c r="K72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D73">
-        <f>SUM(D62:D72)</f>
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>141</v>
-      </c>
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75">
-        <v>240</v>
-      </c>
-      <c r="E75" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J75" t="s">
-        <v>81</v>
-      </c>
-      <c r="K75" t="s">
-        <v>79</v>
-      </c>
-      <c r="L75" t="s">
-        <v>89</v>
-      </c>
-      <c r="M75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>142</v>
-      </c>
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76">
-        <v>377</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>80</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77">
-        <v>225</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>122</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78">
-        <v>631</v>
-      </c>
-      <c r="E78" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
-      <c r="H78" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s">
-        <v>79</v>
-      </c>
-      <c r="L78" t="s">
-        <v>89</v>
-      </c>
-      <c r="M78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79">
-        <v>45</v>
-      </c>
-      <c r="E79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s">
-        <v>81</v>
-      </c>
-      <c r="K79" t="s">
-        <v>79</v>
-      </c>
-      <c r="L79" t="s">
-        <v>89</v>
-      </c>
-      <c r="M79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>110</v>
-      </c>
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80">
-        <v>327</v>
-      </c>
-      <c r="E80" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s">
-        <v>88</v>
-      </c>
-      <c r="H80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s">
-        <v>81</v>
-      </c>
-      <c r="K80" t="s">
-        <v>79</v>
-      </c>
-      <c r="L80" t="s">
-        <v>89</v>
-      </c>
-      <c r="M80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>98</v>
-      </c>
-      <c r="B81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81">
-        <v>192</v>
-      </c>
-      <c r="E81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81" t="s">
-        <v>81</v>
-      </c>
-      <c r="K81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>88</v>
-      </c>
-      <c r="B82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82">
-        <v>3287</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D83">
-        <f>SUM(D75:D82)</f>
-        <v>5324</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EADCD24-C178-9746-BFE1-6D6029F63069}">
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6638,10 +2835,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -6679,7 +2876,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>64</v>
@@ -6699,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>213</v>
@@ -6719,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>43</v>
@@ -6739,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -6759,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -6779,7 +2976,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -6799,7 +2996,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -6819,7 +3016,7 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>261</v>
@@ -6839,7 +3036,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>39</v>
@@ -6871,7 +3068,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -6897,7 +3094,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>41</v>
@@ -6926,7 +3123,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>85</v>
@@ -6958,7 +3155,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -6987,7 +3184,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -7010,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>873</v>
@@ -7033,7 +3230,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>115</v>
@@ -7056,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>106</v>
@@ -7079,7 +3276,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -7105,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -7131,7 +3328,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>143</v>
@@ -7157,7 +3354,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>812</v>
@@ -7180,7 +3377,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>78</v>
@@ -7203,7 +3400,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -7226,7 +3423,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>105</v>
@@ -7252,7 +3449,7 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D26">
         <v>231</v>
@@ -7278,7 +3475,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27">
         <v>881</v>
@@ -7304,7 +3501,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <v>228</v>
@@ -7330,7 +3527,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -7362,7 +3559,7 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <v>60</v>
@@ -7394,7 +3591,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <v>51</v>
@@ -7426,7 +3623,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>75</v>
@@ -7472,7 +3669,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D35">
         <v>27</v>
@@ -7501,7 +3698,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>122</v>
@@ -7533,7 +3730,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>107</v>
@@ -7571,7 +3768,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>176</v>
@@ -7600,7 +3797,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <v>239</v>
@@ -7632,7 +3829,7 @@
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>170</v>
@@ -7664,7 +3861,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>485</v>
@@ -7702,7 +3899,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>48</v>
@@ -7740,7 +3937,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D43">
         <v>58</v>
@@ -7769,7 +3966,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D44">
         <v>111</v>
@@ -7807,7 +4004,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D45">
         <v>223</v>
@@ -7836,7 +4033,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46">
         <v>138</v>
@@ -7868,7 +4065,7 @@
         <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47">
         <v>129</v>
@@ -7903,7 +4100,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D48">
         <v>1314</v>
@@ -7932,7 +4129,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <v>205</v>
@@ -7961,7 +4158,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>1187</v>
@@ -7993,7 +4190,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <v>1741</v>
@@ -8022,7 +4219,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <v>1849</v>
@@ -8065,7 +4262,7 @@
         <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D56">
         <v>459</v>
@@ -8109,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D57">
         <v>186</v>
@@ -8153,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>281</v>
@@ -8194,7 +4391,7 @@
         <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D59">
         <v>37</v>
@@ -8235,7 +4432,7 @@
         <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>95</v>
@@ -8276,7 +4473,7 @@
         <v>55</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <v>197</v>
@@ -8320,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D62">
         <v>32</v>
@@ -8364,7 +4561,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D63">
         <v>44</v>
@@ -8408,7 +4605,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D64">
         <v>103</v>
@@ -8449,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D65">
         <v>737</v>
@@ -8490,7 +4687,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D66">
         <v>1317</v>
@@ -8545,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <v>240</v>
@@ -8592,7 +4789,7 @@
         <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>377</v>
@@ -8639,7 +4836,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D71">
         <v>225</v>
@@ -8680,7 +4877,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D72">
         <v>631</v>
@@ -8727,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>45</v>
@@ -8774,7 +4971,7 @@
         <v>45</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D74">
         <v>327</v>
@@ -8821,7 +5018,7 @@
         <v>34</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>192</v>
@@ -8862,7 +5059,7 @@
         <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D76">
         <v>3287</v>

--- a/data/GroupSpec_tetragonal.xlsx
+++ b/data/GroupSpec_tetragonal.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0AF06-038A-2540-95DE-65E60BF32584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676888DD-A3B7-B244-9177-DBE3C5FDE6B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{4239A55F-B6A0-B74B-A834-7472AF0EB929}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{4239A55F-B6A0-B74B-A834-7472AF0EB929}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="groups_v2" sheetId="4" r:id="rId2"/>
+    <sheet name="groups_v3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="101">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -2808,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EADCD24-C178-9746-BFE1-6D6029F63069}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5109,4 +5110,2315 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A9CE1-2BB7-BA40-9ED7-6038FD7676A9}">
+  <dimension ref="A1:O77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>261</v>
+      </c>
+      <c r="E9">
+        <v>133</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>104</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>143</v>
+      </c>
+      <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>92</v>
+      </c>
+      <c r="M20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22">
+        <v>231</v>
+      </c>
+      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <v>881</v>
+      </c>
+      <c r="E23">
+        <v>160</v>
+      </c>
+      <c r="F23">
+        <v>721</v>
+      </c>
+      <c r="K23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <v>228</v>
+      </c>
+      <c r="E24">
+        <v>105</v>
+      </c>
+      <c r="F24">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>122</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>107</v>
+      </c>
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>176</v>
+      </c>
+      <c r="E32">
+        <v>91</v>
+      </c>
+      <c r="F32">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>239</v>
+      </c>
+      <c r="E33">
+        <v>165</v>
+      </c>
+      <c r="F33">
+        <v>74</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34">
+        <v>170</v>
+      </c>
+      <c r="E34">
+        <v>131</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>485</v>
+      </c>
+      <c r="E35">
+        <v>342</v>
+      </c>
+      <c r="F35">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>111</v>
+      </c>
+      <c r="E38">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" t="s">
+        <v>78</v>
+      </c>
+      <c r="N38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>223</v>
+      </c>
+      <c r="E39">
+        <v>117</v>
+      </c>
+      <c r="F39">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>138</v>
+      </c>
+      <c r="E40">
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <v>84</v>
+      </c>
+      <c r="K40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>129</v>
+      </c>
+      <c r="E41">
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>1314</v>
+      </c>
+      <c r="E42">
+        <v>321</v>
+      </c>
+      <c r="F42">
+        <v>993</v>
+      </c>
+      <c r="K42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43">
+        <v>205</v>
+      </c>
+      <c r="E43">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>1187</v>
+      </c>
+      <c r="E44">
+        <v>461</v>
+      </c>
+      <c r="F44">
+        <v>726</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45">
+        <f>SUM(D2:D44)</f>
+        <v>7611</v>
+      </c>
+      <c r="E45">
+        <f>SUM(E2:E44)</f>
+        <v>2867</v>
+      </c>
+      <c r="F45">
+        <f>SUM(F2:F44)</f>
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47">
+        <v>812</v>
+      </c>
+      <c r="E47">
+        <v>634</v>
+      </c>
+      <c r="F47">
+        <v>178</v>
+      </c>
+      <c r="M47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>86</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="M49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>1741</v>
+      </c>
+      <c r="E50">
+        <v>1605</v>
+      </c>
+      <c r="F50">
+        <v>136</v>
+      </c>
+      <c r="K50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51">
+        <v>1849</v>
+      </c>
+      <c r="E51">
+        <v>1690</v>
+      </c>
+      <c r="F51">
+        <v>159</v>
+      </c>
+      <c r="K51" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52">
+        <v>873</v>
+      </c>
+      <c r="E52">
+        <v>701</v>
+      </c>
+      <c r="F52">
+        <v>172</v>
+      </c>
+      <c r="M52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f>SUM(D47:D52)</f>
+        <v>5443</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:F53" si="0">SUM(E47:E52)</f>
+        <v>4789</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56">
+        <v>459</v>
+      </c>
+      <c r="E56">
+        <v>370</v>
+      </c>
+      <c r="F56">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+      <c r="K56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" t="s">
+        <v>78</v>
+      </c>
+      <c r="N56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <v>186</v>
+      </c>
+      <c r="E57">
+        <v>148</v>
+      </c>
+      <c r="F57">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+      <c r="K57" t="s">
+        <v>80</v>
+      </c>
+      <c r="L57" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" t="s">
+        <v>78</v>
+      </c>
+      <c r="N57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58">
+        <v>281</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>226</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" t="s">
+        <v>80</v>
+      </c>
+      <c r="L58" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>95</v>
+      </c>
+      <c r="E60">
+        <v>69</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61">
+        <v>197</v>
+      </c>
+      <c r="E61">
+        <v>130</v>
+      </c>
+      <c r="F61">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" t="s">
+        <v>81</v>
+      </c>
+      <c r="M62" t="s">
+        <v>78</v>
+      </c>
+      <c r="N62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63">
+        <v>44</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+      <c r="J63" t="s">
+        <v>82</v>
+      </c>
+      <c r="K63" t="s">
+        <v>80</v>
+      </c>
+      <c r="L63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64">
+        <v>103</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K64" t="s">
+        <v>80</v>
+      </c>
+      <c r="L64" t="s">
+        <v>81</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65">
+        <v>737</v>
+      </c>
+      <c r="E65">
+        <v>472</v>
+      </c>
+      <c r="F65">
+        <v>265</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65" t="s">
+        <v>80</v>
+      </c>
+      <c r="L65" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66">
+        <v>1317</v>
+      </c>
+      <c r="E66">
+        <v>383</v>
+      </c>
+      <c r="F66">
+        <v>934</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J66" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f>SUM(D56:D66)</f>
+        <v>3488</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:F67" si="1">SUM(E56:E66)</f>
+        <v>1726</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>240</v>
+      </c>
+      <c r="E69">
+        <v>142</v>
+      </c>
+      <c r="F69">
+        <v>98</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" t="s">
+        <v>81</v>
+      </c>
+      <c r="M69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" t="s">
+        <v>89</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>377</v>
+      </c>
+      <c r="E70">
+        <v>286</v>
+      </c>
+      <c r="F70">
+        <v>91</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>631</v>
+      </c>
+      <c r="E71">
+        <v>364</v>
+      </c>
+      <c r="F71">
+        <v>267</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" t="s">
+        <v>82</v>
+      </c>
+      <c r="K71" t="s">
+        <v>80</v>
+      </c>
+      <c r="L71" t="s">
+        <v>81</v>
+      </c>
+      <c r="M71" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" t="s">
+        <v>89</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>45</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K72" t="s">
+        <v>80</v>
+      </c>
+      <c r="L72" t="s">
+        <v>81</v>
+      </c>
+      <c r="M72" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>327</v>
+      </c>
+      <c r="E73">
+        <v>183</v>
+      </c>
+      <c r="F73">
+        <v>144</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" t="s">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s">
+        <v>80</v>
+      </c>
+      <c r="L73" t="s">
+        <v>81</v>
+      </c>
+      <c r="M73" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" t="s">
+        <v>89</v>
+      </c>
+      <c r="O73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <v>192</v>
+      </c>
+      <c r="E74">
+        <v>69</v>
+      </c>
+      <c r="F74">
+        <v>123</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" t="s">
+        <v>80</v>
+      </c>
+      <c r="L74" t="s">
+        <v>81</v>
+      </c>
+      <c r="M74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>3287</v>
+      </c>
+      <c r="E75">
+        <v>1389</v>
+      </c>
+      <c r="F75">
+        <v>1898</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>225</v>
+      </c>
+      <c r="E76">
+        <v>99</v>
+      </c>
+      <c r="F76">
+        <v>126</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76" t="s">
+        <v>80</v>
+      </c>
+      <c r="L76" t="s">
+        <v>81</v>
+      </c>
+      <c r="M76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f>SUM(D69:D76)</f>
+        <v>5324</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:F77" si="2">SUM(E69:E76)</f>
+        <v>2544</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>2780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>